--- a/biology/Zoologie/Bronchocela/Bronchocela.xlsx
+++ b/biology/Zoologie/Bronchocela/Bronchocela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bronchocela est un genre de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bronchocela est un genre de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quinze espèces de ce genre se rencontrent en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quinze espèces de ce genre se rencontrent en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,18 +556,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 décembre 2023) :
 Bronchocela burmana Blanford, 1878
 Bronchocela celebensis Gray, 1845
 Bronchocela cristatella (Kuhl, 1820)
-Bronchocela cyanopalpebra Chandramouli et al., 2023[3]
+Bronchocela cyanopalpebra Chandramouli et al., 2023
 Bronchocela danieli (Tiwari &amp; Biswas, 1973)
 Bronchocela hayeki (Müller, 1928)
 Bronchocela jubata Duméril &amp; Bibron, 1837
 Bronchocela marmorata Gray, 1845
-Bronchocela nicobarica Chandramouli et al., 2023[3]
+Bronchocela nicobarica Chandramouli et al., 2023
 Bronchocela orlovi Hallermann, 2004
 Bronchocela rayaensis Grismer et al., 2015
 Bronchocela rubrigularis Hallermann, 2009
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kaup, 1827 : Zoologische Monographien. Isis von Oken, vol. 20, p. 610-625 (texte intégral).</t>
         </is>
